--- a/samples traces.xlsx
+++ b/samples traces.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suhwan\Desktop\Project\anomaly_detection_explainability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F684CA-F731-49DA-AC45-80E95C013269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FA2976-47F0-4130-8E86-82002637FBC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0EBDF81F-9FDF-4944-A7B9-99ABC9685622}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="45">
   <si>
     <t>Activity_1</t>
   </si>
@@ -171,13 +171,23 @@
   <si>
     <t>Predicted activity label</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Original 4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assess loan risk</t>
+  </si>
+  <si>
+    <t>Send home insurance quote</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +210,12 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -232,12 +248,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -554,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14E1B8B-4FCF-4513-82A2-BBC9C0C252D3}">
-  <dimension ref="A2:F59"/>
+  <dimension ref="A2:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1465,6 +1484,303 @@
         <v>90887.328999999998</v>
       </c>
     </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63">
+        <v>0.6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64">
+        <v>0.4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>30</v>
+      </c>
+      <c r="E64" t="s">
+        <v>36</v>
+      </c>
+      <c r="F64" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71">
+        <v>2360.3020000000001</v>
+      </c>
+      <c r="D71">
+        <v>364184.6</v>
+      </c>
+      <c r="E71">
+        <v>364184.6</v>
+      </c>
+      <c r="F71">
+        <v>7477.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72">
+        <v>1921.8579999999999</v>
+      </c>
+      <c r="D72">
+        <v>11462.8</v>
+      </c>
+      <c r="E72">
+        <v>11462.8</v>
+      </c>
+      <c r="F72">
+        <v>15936.2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73">
+        <v>1204.576</v>
+      </c>
+      <c r="D73">
+        <v>26386.3</v>
+      </c>
+      <c r="E73">
+        <v>26386.3</v>
+      </c>
+      <c r="F73">
+        <v>8970.7999999999993</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74">
+        <v>7290.1490000000003</v>
+      </c>
+      <c r="D74">
+        <v>13067</v>
+      </c>
+      <c r="E74">
+        <v>5896.7</v>
+      </c>
+      <c r="F74">
+        <v>17100.400000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76">
+        <v>2360.3020000000001</v>
+      </c>
+      <c r="D76">
+        <v>2360.3000000000002</v>
+      </c>
+      <c r="E76">
+        <v>2360.3000000000002</v>
+      </c>
+      <c r="F76">
+        <v>2360.3000000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77">
+        <v>4282.16</v>
+      </c>
+      <c r="D77">
+        <v>4282.16</v>
+      </c>
+      <c r="E77">
+        <v>4282.16</v>
+      </c>
+      <c r="F77">
+        <v>4282.16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78">
+        <v>5486.7359999999999</v>
+      </c>
+      <c r="D78">
+        <v>5486.7359999999999</v>
+      </c>
+      <c r="E78">
+        <v>5486.7359999999999</v>
+      </c>
+      <c r="F78">
+        <v>5486.7359999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79">
+        <v>12776.885</v>
+      </c>
+      <c r="D79">
+        <v>12776.885</v>
+      </c>
+      <c r="E79">
+        <v>12776.885</v>
+      </c>
+      <c r="F79">
+        <v>12776.885</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
